--- a/TestDatas/Login - Copy.xlsx
+++ b/TestDatas/Login - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/ajaybabu_r_dedalus_eu/Documents/Eclipse project/eclipse-workspace/MavenProject/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar287\eclipse-workspace\LIMS\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{8AA4DA4C-A4AD-4A09-B0CE-A5BB6E33AE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A869459A-829A-46F7-9DC1-08348B7E33E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174C154E-E5F9-41BF-99CA-4DCC5C9D5A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDC6057-EB8B-4142-BA24-24EBFD88B7C2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -112,13 +112,16 @@
     <t>DoB</t>
   </si>
   <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>31-Aug-1999</t>
+  </si>
+  <si>
+    <t>Yatra@1002</t>
+  </si>
+  <si>
+    <t>AJ11</t>
+  </si>
+  <si>
+    <t>Aj11</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +142,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,10 +185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,8 +205,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF0082-0916-4B3B-B6B8-00DB482D744F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -599,8 +622,8 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -626,20 +649,23 @@
         <v>1990</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{A9C365A1-501F-458E-B052-226F5FE9DD19}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>